--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr4_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr4_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="15.24609375" customWidth="true"/>
+    <col min="3" max="3" width="14.24609375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
-    <col min="5" max="5" width="15.77734375" customWidth="true"/>
+    <col min="5" max="5" width="16.24609375" customWidth="true"/>
     <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.77734375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="7" max="7" width="15.64453125" customWidth="true"/>
+    <col min="8" max="8" width="15.77734375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="15.77734375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.29348189946836889</v>
+        <v>0.27805746799576114</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.29336628670086118</v>
+        <v>0.27798456775047753</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.00024983243545167598</v>
+        <v>-0.0029994169198866109</v>
       </c>
       <c r="E3" s="0">
-        <v>-7.0250930876069898e-05</v>
+        <v>0.00072610938314979386</v>
       </c>
       <c r="F3" s="0">
-        <v>0.0017260935170293631</v>
+        <v>-0.0004571698970595698</v>
       </c>
       <c r="G3" s="0">
-        <v>0.00016587499980563516</v>
+        <v>0.0003768663806434431</v>
       </c>
       <c r="H3" s="0">
-        <v>2.4117235733381803e-05</v>
+        <v>-2.9443215174702979e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00010853235513057508</v>
+        <v>-0.00039035351533941618</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>7.4938432859106285e-07</v>
+        <v>-3.9831172311544094e-06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.29483285856544084</v>
+        <v>0.32442484437194563</v>
       </c>
       <c r="C4" s="0">
-        <v>0.010513286272925217</v>
+        <v>0.033063597918332799</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>8.5966361701470658e-06</v>
+        <v>-8.9267991684610431e-05</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00010029708912937363</v>
+        <v>6.1997714237972508e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>1.2525324113652561e-05</v>
+        <v>0.00027572967527548446</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.00010551850876374911</v>
+        <v>-0.0078511057007033414</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00040849662532853001</v>
+        <v>0.0024677313243481225</v>
       </c>
       <c r="K4" s="0">
-        <v>1.8283252245510084e-08</v>
+        <v>-1.3180031608328591e-06</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.29596576715124318</v>
+        <v>0.32321705998609673</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0036655699755921292</v>
+        <v>-0.00035121515673548596</v>
       </c>
       <c r="E5" s="0">
-        <v>0.00020454523654111483</v>
+        <v>-0.00045690330086139042</v>
       </c>
       <c r="F5" s="0">
-        <v>0.00053690505334590848</v>
+        <v>0.0074353525746088805</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00015791153803013886</v>
+        <v>-0.0013591064223198387</v>
       </c>
       <c r="H5" s="0">
-        <v>5.9083305978803631e-05</v>
+        <v>0.00057501785595481759</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.00057570474256377611</v>
+        <v>-0.00075066270082961117</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>-1.2920538450811314e-06</v>
+        <v>0.00058166557428412924</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.29072887801471303</v>
+        <v>0.27943862871610958</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.0087311395670648939</v>
+        <v>-0.01205189156630559</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1.7328668356964768e-05</v>
+        <v>-0.00021803658450532859</v>
       </c>
       <c r="F6" s="0">
-        <v>-7.0842220908532634e-05</v>
+        <v>0.00039350326604991784</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-7.3329348126733497e-05</v>
+        <v>0.00050306334731781155</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00062185225491641133</v>
+        <v>-0.0047496728067478811</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>3.3901211893283545e-08</v>
+        <v>1.1042708930597556e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.2888375335903503</v>
+        <v>0.25794612614955637</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0028815536904948139</v>
+        <v>-0.013233482391007355</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0011754409439982013</v>
+        <v>-0.0019871103830624102</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0006998983242313306</v>
+        <v>0.007174935278202314</v>
       </c>
       <c r="G7" s="0">
-        <v>-9.0786599826785282e-05</v>
+        <v>0.002773052415668983</v>
       </c>
       <c r="H7" s="0">
-        <v>-2.4389872928784117e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-5.4389201731917633e-05</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>5.4258497099723968e-06</v>
+        <v>-9.4687555323491601e-05</v>
       </c>
     </row>
     <row r="8">
